--- a/Documents/Project Plan/Timeline chart.xlsx
+++ b/Documents/Project Plan/Timeline chart.xlsx
@@ -55,6 +55,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
